--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F8CB1-08DD-429B-B774-C3542F5061BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6A9DF-6FF2-45EA-B855-28DA8C63B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="1365" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item_ItemInfo" sheetId="2" r:id="rId1"/>
-    <sheet name="Item_Storage" sheetId="3" r:id="rId2"/>
+    <sheet name="Item" sheetId="2" r:id="rId1"/>
+    <sheet name="ItemStorage" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F92F5-C88D-40F1-850A-3F92C080C1C0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6A9DF-6FF2-45EA-B855-28DA8C63B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814ACE53-3871-44E6-AC96-A50CDF028FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="1365" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>MaxStackNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,86 @@
   </si>
   <si>
     <t>초보자가 사용하기에 적당한 철검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 착용하기에 적당한 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 어깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 착용하기에 적당한 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 착용하기에 적당한 어깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 착용하기에 적당한 장갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 착용하기에 적당한 부츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,16 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -778,7 +858,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -787,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -836,6 +916,636 @@
         <v>1</v>
       </c>
       <c r="T4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>255</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>100</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5" si="1">ROUNDUP(Q5/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2">
+        <v>11001</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>255</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>100</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6" si="2">ROUNDUP(Q6/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2">
+        <v>12001</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>255</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>100</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7" si="3">ROUNDUP(Q7/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>255</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>100</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8" si="4">ROUNDUP(Q8/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2">
+        <v>21001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>255</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>100</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9" si="5">ROUNDUP(Q9/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2">
+        <v>30001</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
+        <v>255</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>255</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:R14" si="6">ROUNDUP(Q10/2, 0)</f>
+        <v>50</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2">
+        <v>40002</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>255</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>255</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>100</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2">
+        <v>50001</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2">
+        <v>255</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>255</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>100</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2">
+        <v>60001</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>255</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>255</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>100</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2">
+        <v>70001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2">
+        <v>255</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>255</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>100</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F92F5-C88D-40F1-850A-3F92C080C1C0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814ACE53-3871-44E6-AC96-A50CDF028FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3E9DDF-1A48-4BED-A1BF-250EA1CA61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GearType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>초보자가 착용하기에 적당한 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -734,22 +734,22 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -761,22 +761,22 @@
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -805,55 +805,55 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="R3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -861,16 +861,16 @@
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>11001</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>11000</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1050,16 +1050,16 @@
         <v>12001</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>12000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>20001</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1176,16 +1176,16 @@
         <v>21001</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>21000</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1239,16 +1239,16 @@
         <v>30001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>255</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>30000</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -1302,16 +1302,16 @@
         <v>40002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>255</v>
       </c>
       <c r="E11" s="2">
-        <v>6</v>
+        <v>40000</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
@@ -1365,16 +1365,16 @@
         <v>50001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
         <v>255</v>
       </c>
       <c r="E12" s="2">
-        <v>7</v>
+        <v>50000</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1428,16 +1428,16 @@
         <v>60001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <v>255</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>60000</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
@@ -1491,16 +1491,16 @@
         <v>70001</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>255</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>70000</v>
       </c>
       <c r="F14" s="2">
         <v>6</v>
@@ -1571,7 +1571,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>14</v>
@@ -1588,18 +1588,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3E9DDF-1A48-4BED-A1BF-250EA1CA61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6F221-5FC1-4F5C-95B3-C34CA992E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>MaxStackNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,54 @@
   </si>
   <si>
     <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Melee/MELEE 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Melee/MELEE 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Bow/BOW 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Staff/STAFF 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Quiver/QUIVER 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Armor/ARMOR 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Helmet/HELMET 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Shoulder/SHOULDER 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Arm/ARM 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Feet/FEET 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Shield/SHIELD 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -654,23 +702,24 @@
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -681,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>14</v>
@@ -731,8 +780,11 @@
       <c r="T1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -743,58 +795,61 @@
         <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="S2" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -805,13 +860,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>16</v>
@@ -823,10 +878,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>26</v>
@@ -841,22 +896,25 @@
         <v>26</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
@@ -866,32 +924,32 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
       <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>255</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -906,20 +964,23 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>100</v>
       </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4" si="0">ROUNDUP(Q4/2, 0)</f>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4" si="0">ROUNDUP(R4/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
       <c r="T4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
@@ -929,32 +990,32 @@
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>10000</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
       <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>255</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -969,20 +1030,23 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>100</v>
       </c>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5" si="1">ROUNDUP(Q5/2, 0)</f>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5" si="1">ROUNDUP(R5/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
       <c r="T5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>11001</v>
       </c>
@@ -992,32 +1056,32 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>11000</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>255</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1032,20 +1096,23 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>100</v>
       </c>
-      <c r="R6" s="2">
-        <f t="shared" ref="R6" si="2">ROUNDUP(Q6/2, 0)</f>
+      <c r="S6" s="2">
+        <f t="shared" ref="S6" si="2">ROUNDUP(R6/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
       <c r="T6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>12001</v>
       </c>
@@ -1055,32 +1122,32 @@
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>12000</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
       <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>255</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1095,20 +1162,23 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
         <v>100</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7" si="3">ROUNDUP(Q7/2, 0)</f>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7" si="3">ROUNDUP(R7/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
       <c r="T7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>20001</v>
       </c>
@@ -1118,32 +1188,32 @@
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>20000</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
       <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>255</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1158,20 +1228,23 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
         <v>100</v>
       </c>
-      <c r="R8" s="2">
-        <f t="shared" ref="R8" si="4">ROUNDUP(Q8/2, 0)</f>
+      <c r="S8" s="2">
+        <f t="shared" ref="S8" si="4">ROUNDUP(R8/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
       <c r="T8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>21001</v>
       </c>
@@ -1181,32 +1254,32 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>21000</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
       <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>255</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1221,20 +1294,23 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
         <v>100</v>
       </c>
-      <c r="R9" s="2">
-        <f t="shared" ref="R9" si="5">ROUNDUP(Q9/2, 0)</f>
+      <c r="S9" s="2">
+        <f t="shared" ref="S9" si="5">ROUNDUP(R9/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
       <c r="T9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>30001</v>
       </c>
@@ -1244,32 +1320,32 @@
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2">
         <v>255</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>30000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>255</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1284,20 +1360,23 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <v>100</v>
       </c>
-      <c r="R10" s="2">
-        <f t="shared" ref="R10:R14" si="6">ROUNDUP(Q10/2, 0)</f>
+      <c r="S10" s="2">
+        <f t="shared" ref="S10:S14" si="6">ROUNDUP(R10/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
       <c r="T10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>40002</v>
       </c>
@@ -1307,32 +1386,32 @@
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2">
         <v>255</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>40000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>255</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1347,20 +1426,23 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
         <v>100</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
       <c r="T11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>50001</v>
       </c>
@@ -1370,32 +1452,32 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2">
         <v>255</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>50000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>255</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1410,20 +1492,23 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
         <v>100</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
       <c r="T12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>60001</v>
       </c>
@@ -1433,32 +1518,32 @@
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2">
         <v>255</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>60000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
       </c>
       <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
         <v>255</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1473,20 +1558,23 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
         <v>100</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
       <c r="T13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>70001</v>
       </c>
@@ -1496,32 +1584,32 @@
       <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
         <v>255</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>70000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>255</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
       <c r="J14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -1536,16 +1624,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
         <v>100</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
       <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6F221-5FC1-4F5C-95B3-C34CA992E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EC700F-DD74-407B-B0A1-EC502201649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>MaxStackNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsableMinLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsableMaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -706,120 +698,112 @@
     <col min="5" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>27</v>
@@ -828,78 +812,72 @@
         <v>28</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>19</v>
@@ -907,25 +885,19 @@
       <c r="S3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -937,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -961,37 +933,31 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q4" si="0">ROUNDUP(P4/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4" si="0">ROUNDUP(R4/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1003,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1027,37 +993,31 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q5" si="1">ROUNDUP(P5/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R5" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5" si="1">ROUNDUP(R5/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>11001</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1069,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1093,37 +1053,31 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q6" si="2">ROUNDUP(P6/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R6" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" ref="S6" si="2">ROUNDUP(R6/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>12001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1135,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1159,37 +1113,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q7" si="3">ROUNDUP(P7/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R7" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" ref="S7" si="3">ROUNDUP(R7/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>20001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1201,19 +1149,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1225,37 +1173,31 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q8" si="4">ROUNDUP(P8/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8" si="4">ROUNDUP(R8/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>21001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1267,19 +1209,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1291,37 +1233,31 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q9" si="5">ROUNDUP(P9/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R9" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="5">ROUNDUP(R9/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>30001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>255</v>
@@ -1333,19 +1269,19 @@
         <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1357,37 +1293,31 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <f t="shared" ref="Q10:Q14" si="6">ROUNDUP(P10/2, 0)</f>
+        <v>50</v>
       </c>
       <c r="R10" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:S14" si="6">ROUNDUP(R10/2, 0)</f>
-        <v>50</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>40002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2">
         <v>255</v>
@@ -1399,19 +1329,19 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1423,37 +1353,31 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>100</v>
-      </c>
-      <c r="S11" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>50001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2">
         <v>255</v>
@@ -1465,19 +1389,19 @@
         <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -1489,37 +1413,31 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>100</v>
-      </c>
-      <c r="S12" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>60001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2">
         <v>255</v>
@@ -1531,19 +1449,19 @@
         <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1555,37 +1473,31 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>100</v>
-      </c>
-      <c r="S13" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>70001</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2">
         <v>255</v>
@@ -1597,19 +1509,19 @@
         <v>6</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -1621,22 +1533,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>100</v>
-      </c>
-      <c r="S14" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1662,13 +1568,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1679,18 +1585,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EC700F-DD74-407B-B0A1-EC502201649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF96C0-A08D-468E-840F-0F3874CF91DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,30 +129,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectIndex1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectIndex2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectIndex3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectIndex4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectIndex5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +270,26 @@
   </si>
   <si>
     <t>UI/Item/Gear/Shield/SHIELD 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityID5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +686,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -797,19 +797,19 @@
         <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>8</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>14</v>
@@ -856,19 +856,19 @@
         <v>17</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>16</v>
@@ -894,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1011,13 +1011,13 @@
         <v>11001</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>12001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>20001</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>21001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>30001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>255</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>40002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>255</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1371,13 +1371,13 @@
         <v>50001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>255</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>60001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2">
         <v>255</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>70001</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2">
         <v>255</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF96C0-A08D-468E-840F-0F3874CF91DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4732CD-5734-42E2-A743-ABAF1AD6FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
-    <t>MaxStackNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>AbilityID5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +686,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -711,179 +711,179 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -891,13 +891,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1011,13 +1011,13 @@
         <v>11001</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1071,13 +1071,13 @@
         <v>12001</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1131,13 +1131,13 @@
         <v>20001</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>21001</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>30001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2">
         <v>255</v>
@@ -1311,13 +1311,13 @@
         <v>40002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>255</v>
@@ -1371,13 +1371,13 @@
         <v>50001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2">
         <v>255</v>
@@ -1431,13 +1431,13 @@
         <v>60001</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2">
         <v>255</v>
@@ -1491,13 +1491,13 @@
         <v>70001</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2">
         <v>255</v>
@@ -1568,35 +1568,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4732CD-5734-42E2-A743-ABAF1AD6FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095C8D7-391C-4FB0-AFCA-059C270E6063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>SellPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,34 @@
   <si>
     <t>MaxStackCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 체력포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 체력포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Potion/NoviceHPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectID2</t>
+  </si>
+  <si>
+    <t>EffectID3</t>
+  </si>
+  <si>
+    <t>EffectID4</t>
+  </si>
+  <si>
+    <t>EffectID5</t>
   </si>
 </sst>
 </file>
@@ -683,17 +711,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -701,15 +729,16 @@
     <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="15" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -767,8 +796,23 @@
       <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -812,22 +856,37 @@
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="U2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -871,22 +930,37 @@
         <v>22</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:24">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
@@ -915,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>2001</v>
+        <v>20001</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -933,20 +1007,35 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>100</v>
       </c>
-      <c r="Q4" s="2">
-        <f t="shared" ref="Q4" si="0">ROUNDUP(P4/2, 0)</f>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4" si="0">ROUNDUP(U4/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
@@ -975,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>2002</v>
+        <v>20002</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -993,20 +1082,35 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>100</v>
       </c>
-      <c r="Q5" s="2">
-        <f t="shared" ref="Q5" si="1">ROUNDUP(P5/2, 0)</f>
+      <c r="V5" s="2">
+        <f t="shared" ref="V5" si="1">ROUNDUP(U5/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="2">
         <v>11001</v>
       </c>
@@ -1035,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1053,20 +1157,35 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
         <v>100</v>
       </c>
-      <c r="Q6" s="2">
-        <f t="shared" ref="Q6" si="2">ROUNDUP(P6/2, 0)</f>
+      <c r="V6" s="2">
+        <f t="shared" ref="V6" si="2">ROUNDUP(U6/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>12001</v>
       </c>
@@ -1095,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>3001</v>
+        <v>30001</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1113,20 +1232,35 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>100</v>
       </c>
-      <c r="Q7" s="2">
-        <f t="shared" ref="Q7" si="3">ROUNDUP(P7/2, 0)</f>
+      <c r="V7" s="2">
+        <f t="shared" ref="V7" si="3">ROUNDUP(U7/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="2">
         <v>20001</v>
       </c>
@@ -1155,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1173,20 +1307,35 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
         <v>100</v>
       </c>
-      <c r="Q8" s="2">
-        <f t="shared" ref="Q8" si="4">ROUNDUP(P8/2, 0)</f>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8" si="4">ROUNDUP(U8/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="2">
         <v>21001</v>
       </c>
@@ -1215,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1233,20 +1382,35 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
         <v>100</v>
       </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9" si="5">ROUNDUP(P9/2, 0)</f>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9" si="5">ROUNDUP(U9/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>30001</v>
       </c>
@@ -1275,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1293,20 +1457,35 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
         <v>100</v>
       </c>
-      <c r="Q10" s="2">
-        <f t="shared" ref="Q10:Q14" si="6">ROUNDUP(P10/2, 0)</f>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10:V14" si="6">ROUNDUP(U10/2, 0)</f>
         <v>50</v>
       </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="2">
         <v>40002</v>
       </c>
@@ -1335,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1353,20 +1532,35 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <v>100</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="V11" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="2">
         <v>50001</v>
       </c>
@@ -1395,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1413,20 +1607,35 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
         <v>100</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="V12" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="W12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="2">
         <v>60001</v>
       </c>
@@ -1455,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1473,20 +1682,35 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <v>100</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="V13" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="2">
         <v>70001</v>
       </c>
@@ -1515,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -1533,16 +1757,106 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <v>100</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="V14" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="2">
+        <v>80001</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2">
+        <v>255</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>10</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" ref="V15" si="7">ROUNDUP(U15/2, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095C8D7-391C-4FB0-AFCA-059C270E6063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BE1B9-1735-46CC-89A0-137250EA0E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Item/Potion/NoviceHPPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>EffectID5</t>
+  </si>
+  <si>
+    <t>UI/Item/Potion/NovieHPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -856,19 +856,19 @@
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>7</v>
@@ -1796,7 +1796,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2">
         <v>255</v>
@@ -1854,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BE1B9-1735-46CC-89A0-137250EA0E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07558A95-8FEE-4347-AB20-4EF94E8E387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초보자가 사용하기에 적당한 체력포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초보자의 체력포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +314,10 @@
   </si>
   <si>
     <t>UI/Item/Potion/NovieHPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자가 사용하기에 적당한 물약\n체력을 {0}만큼 회복 시켜 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,14 +714,14 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -856,19 +856,19 @@
         <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>7</v>
@@ -1790,13 +1790,13 @@
         <v>80001</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2">
         <v>255</v>

--- a/Document/Data/Item/Item.xlsx
+++ b/Document/Data/Item/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07558A95-8FEE-4347-AB20-4EF94E8E387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022ECE5E-E725-4048-ADC3-7C9CF7B6C47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12370" yWindow="5070" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -249,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/Item/Gear/Helmet/HELMET 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/Item/Gear/Shoulder/SHOULDER 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +313,10 @@
   </si>
   <si>
     <t>초보자가 사용하기에 적당한 물약\n체력을 {0}만큼 회복 시켜 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Item/Gear/Helmet/HELMET 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,13 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,101 +706,101 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="12.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12.08203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="9" t="s">
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -819,70 +811,70 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -893,70 +885,70 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1271,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1349,7 +1341,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>21000</v>
@@ -1487,7 +1479,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="2">
-        <v>40002</v>
+        <v>40003</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>37</v>
@@ -1496,7 +1488,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2">
         <v>255</v>
@@ -1571,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>255</v>
@@ -1646,7 +1638,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2">
         <v>255</v>
@@ -1721,7 +1713,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2">
         <v>255</v>
@@ -1790,13 +1782,13 @@
         <v>80001</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2">
         <v>255</v>
@@ -1873,21 +1865,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="26.58203125" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1898,18 +1890,18 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
